--- a/1. 뉴턴 2법칙/data/result.xlsx
+++ b/1. 뉴턴 2법칙/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,410 +444,1060 @@
           <t>a</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Corrected N</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>expected_a</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>expected_T1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected_T2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-0.379375</v>
+      </c>
       <c r="C2" t="n">
         <v>0.491830985915493</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07930500000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5200637983454265</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1406569170226855</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1405989150930503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-0.3731645569620253</v>
+      </c>
       <c r="C3" t="n">
         <v>0.5127272727272727</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08551544303797465</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5200637983454265</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1406569170226855</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1405989150930503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-0.3759615384615384</v>
+      </c>
       <c r="C4" t="n">
         <v>0.5179310344827586</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08271846153846157</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5200637983454265</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1406569170226855</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1405989150930503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-0.2944444444444445</v>
+      </c>
       <c r="C5" t="n">
         <v>0.8352380952380951</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1642355555555555</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8548659449734767</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2246956038477924</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2246002619406154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>-0.2806849315068494</v>
+      </c>
       <c r="C6" t="n">
         <v>0.8053846153846155</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1779950684931506</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8548659449734767</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2246956038477924</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2246002619406154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>-0.2893478260869566</v>
+      </c>
       <c r="C7" t="n">
         <v>0.8296000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1693321739130434</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8548659449734767</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2246956038477924</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2246002619406154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-0.1974137931034483</v>
+      </c>
       <c r="C8" t="n">
         <v>1.125581395348837</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2612662068965517</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.16697170829301</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3030372714986286</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.302907120907247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>-0.2241176470588235</v>
+      </c>
       <c r="C9" t="n">
         <v>1.116</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2345623529411764</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.16697170829301</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3030372714986286</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.302907120907247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>-0.2202777777777778</v>
+      </c>
       <c r="C10" t="n">
         <v>1.122857142857143</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2384022222222222</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.16697170829301</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3030372714986286</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.302907120907247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>-0.1478571428571429</v>
+      </c>
       <c r="C11" t="n">
         <v>1.424242424242424</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3108228571428571</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.465375992812547</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3779397309558775</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3777762997855197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>-0.1548148148148148</v>
+      </c>
       <c r="C12" t="n">
         <v>1.395294117647059</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3038651851851852</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.465375992812547</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3779397309558775</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3777762997855197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-0.149375</v>
+      </c>
       <c r="C13" t="n">
         <v>1.397894736842105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3093049999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.465375992812547</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3779397309558775</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3777762997855197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.02928571428571429</v>
+      </c>
       <c r="C14" t="n">
         <v>1.595555555555555</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4879657142857143</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.737008201587415</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4461221316804571</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4459284057802795</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0.04030303030303031</v>
+      </c>
       <c r="C15" t="n">
         <v>1.59</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4989830303030303</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.737008201587415</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4461221316804571</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4459284057802795</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0.04125</v>
+      </c>
       <c r="C16" t="n">
         <v>1.642352941176471</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.49993</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.737008201587415</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4461221316804571</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4459284057802795</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-0.3651754385964913</v>
+      </c>
       <c r="C17" t="n">
         <v>0.2604347826086957</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.09350456140350871</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2495842465762851</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1447218112607446</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.144693975506835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>-0.3673170731707318</v>
+      </c>
       <c r="C18" t="n">
         <v>0.2668235294117647</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.09136292682926822</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2495842465762851</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1447218112607446</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.144693975506835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-0.3691764705882354</v>
+      </c>
       <c r="C19" t="n">
         <v>0.2736363636363636</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.08950352941176459</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2495842465762851</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1447218112607446</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.144693975506835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-0.2712987012987014</v>
+      </c>
       <c r="C20" t="n">
         <v>0.4284848484848485</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1873812987012986</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4309834330118175</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2352835410968198</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2352354741657335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>-0.2671153846153846</v>
+      </c>
       <c r="C21" t="n">
         <v>0.4266666666666667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1915646153846153</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4309834330118175</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2352835410968198</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2352354741657335</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>-0.2699065420560748</v>
+      </c>
       <c r="C22" t="n">
         <v>0.4309859154929577</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1887734579439251</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4309834330118175</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2352835410968198</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2352354741657335</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>-0.1829113924050632</v>
+      </c>
       <c r="C23" t="n">
         <v>0.6054237288135594</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2757686075949368</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6059692304560718</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3226434506128893</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3225758677802101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>-0.1851515151515151</v>
+      </c>
       <c r="C24" t="n">
         <v>0.6062068965517241</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2735284848484849</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6059692304560718</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3226434506128893</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3225758677802101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>-0.1933333333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>0.5993220338983052</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2653466666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6059692304560718</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3226434506128893</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3225758677802101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>-0.1085714285714286</v>
+      </c>
       <c r="C26" t="n">
         <v>0.7576923076923077</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3501085714285714</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.778856392074981</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4089556371795136</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4088687725029241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>-0.08780219780219781</v>
+      </c>
       <c r="C27" t="n">
         <v>0.7481481481481481</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3708778021978022</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.778856392074981</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4089556371795136</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4088687725029241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>-0.1097619047619048</v>
+      </c>
       <c r="C28" t="n">
         <v>0.77</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3489180952380952</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.778856392074981</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4089556371795136</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4088687725029241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.05333333333333334</v>
+      </c>
       <c r="C29" t="n">
         <v>0.9100000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5120133333333333</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9412102412192511</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.490009172826299</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4899042010702242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>-0.01924739024390244</v>
+      </c>
       <c r="C30" t="n">
         <v>0.9025</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4394326097560975</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9412102412192511</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.490009172826299</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4899042010702242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>0.003707865168539326</v>
+      </c>
       <c r="C31" t="n">
         <v>0.9133333333333336</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.4623878651685393</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9412102412192511</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.490009172826299</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4899042010702242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>-0.3636974789915966</v>
+      </c>
       <c r="C32" t="n">
         <v>0.1702654867256637</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.09498252100840338</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1540380029531614</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1461577252610136</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1461405456352891</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>-0.3647413793103448</v>
+      </c>
       <c r="C33" t="n">
         <v>0.1628571428571428</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.09393862068965519</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1540380029531614</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1461577252610136</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1461405456352891</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>-0.3628915662650602</v>
+      </c>
       <c r="C34" t="n">
         <v>0.172</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.09578843373493978</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1540380029531614</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1461577252610136</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1461405456352891</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>-0.2703529411764706</v>
+      </c>
       <c r="C35" t="n">
         <v>0.2847058823529411</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1883270588235293</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2776367962123913</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2391139056954153</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2390829412830311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>-0.2697560975609756</v>
+      </c>
       <c r="C36" t="n">
         <v>0.2902439024390243</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1889239024390243</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2776367962123913</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2391139056954153</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2390829412830311</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>-0.2690588235294118</v>
+      </c>
       <c r="C37" t="n">
         <v>0.2841860465116279</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1896211764705882</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2776367962123913</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2391139056954153</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2390829412830311</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>-0.1798484848484848</v>
+      </c>
       <c r="C38" t="n">
         <v>0.4022535211267605</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2788315151515152</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3983494071035461</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.329899446094435</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3298550187869496</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>-0.1832727272727273</v>
+      </c>
       <c r="C39" t="n">
         <v>0.4078688524590164</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2754072727272727</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3983494071035461</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.329899446094435</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3298550187869496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>-0.1857627118644067</v>
+      </c>
       <c r="C40" t="n">
         <v>0.4092307692307692</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2729172881355932</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3983494071035461</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.329899446094435</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3298550187869496</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>-0.09271428571428569</v>
+      </c>
       <c r="C41" t="n">
         <v>0.5239344262295083</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3659657142857143</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5190717556324045</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4206923099760188</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4206344186874084</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>-0.08357798165137613</v>
+      </c>
       <c r="C42" t="n">
         <v>0.5261016949152543</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3751020183486238</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5190717556324045</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4206923099760188</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4206344186874084</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>-0.08365384615384615</v>
+      </c>
       <c r="C43" t="n">
         <v>0.5252459016393444</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3750261538461538</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5190717556324045</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4206923099760188</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4206344186874084</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>-0.005877553571428572</v>
+      </c>
       <c r="C44" t="n">
         <v>0.6226415094339621</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4528024464285714</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6337817273000577</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5069633854678274</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5068927007493989</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>0.007313</v>
+      </c>
       <c r="C45" t="n">
         <v>0.6054237288135594</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.465993</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6337817273000577</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5069633854678274</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5068927007493989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>0.002490296296296296</v>
+      </c>
       <c r="C46" t="n">
         <v>0.6252631578947369</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4611702962962963</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6337817273000577</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5069633854678274</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5068927007493989</v>
       </c>
     </row>
   </sheetData>

--- a/1. 뉴턴 2법칙/data/result.xlsx
+++ b/1. 뉴턴 2법칙/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>expected_a</t>
+          <t>Expected a</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>expected_T1</t>
+          <t>Expected T1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>expected_T2</t>
+          <t>Expected T2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Error a</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Error N</t>
         </is>
       </c>
     </row>
@@ -487,6 +497,12 @@
       <c r="G2" t="n">
         <v>0.1405989150930503</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.05428720960727455</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.4361813007233089</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -510,6 +526,12 @@
       <c r="G3" t="n">
         <v>0.1405989150930503</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.01410697233972988</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.3920281714678668</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -533,6 +555,12 @@
       <c r="G4" t="n">
         <v>0.1405989150930503</v>
       </c>
+      <c r="H4" t="n">
+        <v>-0.004100965822757262</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.4119133044475835</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,6 +584,12 @@
       <c r="G5" t="n">
         <v>0.2246002619406154</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.02296014930854515</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.2690753501932874</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +613,12 @@
       <c r="G6" t="n">
         <v>0.2246002619406154</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.05788197539018404</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.2078391145839973</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -602,6 +642,12 @@
       <c r="G7" t="n">
         <v>0.2246002619406154</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.02955544681834351</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.246393026773465</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -625,6 +671,12 @@
       <c r="G8" t="n">
         <v>0.302907120907247</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.03546813744500867</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1378413433948368</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -648,6 +700,12 @@
       <c r="G9" t="n">
         <v>0.302907120907247</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.04367861528328695</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.2259620350289553</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -671,6 +729,12 @@
       <c r="G10" t="n">
         <v>0.302907120907247</v>
       </c>
+      <c r="H10" t="n">
+        <v>-0.03780260063064966</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.2132907577895047</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -694,6 +758,12 @@
       <c r="G11" t="n">
         <v>0.3777762997855197</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.02807031695065114</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1775861819112529</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -717,6 +787,12 @@
       <c r="G12" t="n">
         <v>0.3777762997855197</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.04782518309923857</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.195995656723744</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -740,6 +816,12 @@
       <c r="G13" t="n">
         <v>0.3777762997855197</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.04605047189351243</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.1816023173385026</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -763,6 +845,12 @@
       <c r="G14" t="n">
         <v>0.4459284057802795</v>
       </c>
+      <c r="H14" t="n">
+        <v>-0.08143464486960356</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.09379400759079215</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -786,6 +874,12 @@
       <c r="G15" t="n">
         <v>0.4459284057802795</v>
       </c>
+      <c r="H15" t="n">
+        <v>-0.08463299220640842</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1184897472435546</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -809,6 +903,12 @@
       <c r="G16" t="n">
         <v>0.4459284057802795</v>
       </c>
+      <c r="H16" t="n">
+        <v>-0.0544932720089871</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1206124164180308</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -832,6 +932,12 @@
       <c r="G17" t="n">
         <v>0.144693975506835</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.04347444272326768</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.3539013878492578</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -855,6 +961,12 @@
       <c r="G18" t="n">
         <v>0.144693975506835</v>
       </c>
+      <c r="H18" t="n">
+        <v>0.0690719990222238</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.3686996726107851</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -878,6 +990,12 @@
       <c r="G19" t="n">
         <v>0.144693975506835</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.09636873075932327</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.3815477526707669</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -901,6 +1019,12 @@
       <c r="G20" t="n">
         <v>0.2352354741657335</v>
       </c>
+      <c r="H20" t="n">
+        <v>-0.005797402720351164</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.2035936817858809</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -924,6 +1048,12 @@
       <c r="G21" t="n">
         <v>0.2352354741657335</v>
       </c>
+      <c r="H21" t="n">
+        <v>-0.01001608417981209</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.1858137866694805</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -947,6 +1077,12 @@
       <c r="G22" t="n">
         <v>0.2352354741657335</v>
       </c>
+      <c r="H22" t="n">
+        <v>5.760038437942799e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.1976767390361386</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -970,6 +1106,12 @@
       <c r="G23" t="n">
         <v>0.3225758677802101</v>
       </c>
+      <c r="H23" t="n">
+        <v>-0.0009002134350976253</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.1452837270643792</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -993,6 +1135,12 @@
       <c r="G24" t="n">
         <v>0.3225758677802101</v>
       </c>
+      <c r="H24" t="n">
+        <v>0.0003922081909562793</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.1522267557922104</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1016,6 +1164,12 @@
       <c r="G25" t="n">
         <v>0.3225758677802101</v>
       </c>
+      <c r="H25" t="n">
+        <v>-0.01096952819331055</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.1775854548957445</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1039,6 +1193,12 @@
       <c r="G26" t="n">
         <v>0.4088687725029241</v>
       </c>
+      <c r="H26" t="n">
+        <v>-0.02717328200425925</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.1438959642586144</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1062,6 +1222,12 @@
       <c r="G27" t="n">
         <v>0.4088687725029241</v>
       </c>
+      <c r="H27" t="n">
+        <v>-0.03942735045805031</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.09310994034542885</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1085,6 +1251,12 @@
       <c r="G28" t="n">
         <v>0.4088687725029241</v>
       </c>
+      <c r="H28" t="n">
+        <v>-0.01137102059519132</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.1468069797386471</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1108,6 +1280,12 @@
       <c r="G29" t="n">
         <v>0.4899042010702242</v>
       </c>
+      <c r="H29" t="n">
+        <v>-0.03315969148276689</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0449056093789381</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1131,6 +1309,12 @@
       <c r="G30" t="n">
         <v>0.4899042010702242</v>
       </c>
+      <c r="H30" t="n">
+        <v>-0.04112815556395306</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.1032155434529591</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1154,6 +1338,12 @@
       <c r="G31" t="n">
         <v>0.4899042010702242</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.0296181518911286</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.0563689603981169</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1177,6 +1367,12 @@
       <c r="G32" t="n">
         <v>0.1461405456352891</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.1053472744478297</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.3501368412871764</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1200,6 +1396,12 @@
       <c r="G33" t="n">
         <v>0.1461405456352891</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.05725301376870662</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.357279127587021</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1223,6 +1425,12 @@
       <c r="G34" t="n">
         <v>0.1461405456352891</v>
       </c>
+      <c r="H34" t="n">
+        <v>0.1166075689276516</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.3446228479276248</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1246,6 +1454,12 @@
       <c r="G35" t="n">
         <v>0.2390829412830311</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.02546163274100731</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.2123960408081768</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1269,6 +1483,12 @@
       <c r="G36" t="n">
         <v>0.2390829412830311</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.04540862882234302</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.209899976793166</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1292,6 +1512,12 @@
       <c r="G37" t="n">
         <v>0.2390829412830311</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.02358927342695013</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.2069839020063989</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1315,6 +1541,12 @@
       <c r="G38" t="n">
         <v>0.3298550187869496</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.009800727586371334</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.1547984743457297</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1338,6 +1570,12 @@
       <c r="G39" t="n">
         <v>0.3298550187869496</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.02389722486268411</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.1651781293126624</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1361,6 +1599,12 @@
       <c r="G40" t="n">
         <v>0.3298550187869496</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.02731612482203242</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.1727258370192304</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1384,6 +1628,12 @@
       <c r="G41" t="n">
         <v>0.4206344186874084</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.009368012311090584</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.1300869885009882</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1407,6 +1657,12 @@
       <c r="G42" t="n">
         <v>0.4206344186874084</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.01354328993355639</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.1083696814662331</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1430,6 +1686,12 @@
       <c r="G43" t="n">
         <v>0.4206344186874084</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.0118945905646854</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.1085500139816393</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1453,6 +1715,12 @@
       <c r="G44" t="n">
         <v>0.5068927007493989</v>
       </c>
+      <c r="H44" t="n">
+        <v>-0.01757737307062075</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.1068340250830463</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1476,6 +1744,12 @@
       <c r="G45" t="n">
         <v>0.5068927007493989</v>
       </c>
+      <c r="H45" t="n">
+        <v>-0.04474410868124069</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.08081527511108083</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1498,6 +1772,12 @@
       </c>
       <c r="G46" t="n">
         <v>0.5068927007493989</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.01344085674670733</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.0903281982174572</v>
       </c>
     </row>
   </sheetData>

--- a/1. 뉴턴 2법칙/data/result.xlsx
+++ b/1. 뉴턴 2법칙/data/result.xlsx
@@ -489,19 +489,19 @@
         <v>0.07930500000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5200637983454265</v>
+        <v>0.519628121963905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1406569170226855</v>
+        <v>0.1405475578941598</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1405989150930503</v>
+        <v>0.1406055112334665</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.05428720960727455</v>
+        <v>-0.0534942873056106</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4361813007233089</v>
+        <v>-0.435742597109221</v>
       </c>
     </row>
     <row r="3">
@@ -518,19 +518,19 @@
         <v>0.08551544303797465</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5200637983454265</v>
+        <v>0.519628121963905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1406569170226855</v>
+        <v>0.1405475578941598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1405989150930503</v>
+        <v>0.1406055112334665</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.01410697233972988</v>
+        <v>-0.01328036136795462</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3920281714678668</v>
+        <v>-0.3915551125948942</v>
       </c>
     </row>
     <row r="4">
@@ -547,19 +547,19 @@
         <v>0.08271846153846157</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5200637983454265</v>
+        <v>0.519628121963905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1406569170226855</v>
+        <v>0.1405475578941598</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1405989150930503</v>
+        <v>0.1406055112334665</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.004100965822757262</v>
+        <v>-0.003265965426837064</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4119133044475835</v>
+        <v>-0.4114557180655304</v>
       </c>
     </row>
     <row r="5">
@@ -576,19 +576,19 @@
         <v>0.1642355555555555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8548659449734767</v>
+        <v>0.8541755906808919</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2246956038477924</v>
+        <v>0.2245223180168107</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2246002619406154</v>
+        <v>0.2246175829298164</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02296014930854515</v>
+        <v>-0.02217049474300836</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2690753501932874</v>
+        <v>-0.2685112241569739</v>
       </c>
     </row>
     <row r="6">
@@ -605,19 +605,19 @@
         <v>0.1779950684931506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8548659449734767</v>
+        <v>0.8541755906808919</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2246956038477924</v>
+        <v>0.2245223180168107</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2246002619406154</v>
+        <v>0.2246175829298164</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05788197539018404</v>
+        <v>-0.05712054503615994</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2078391145839973</v>
+        <v>-0.2072277265557914</v>
       </c>
     </row>
     <row r="7">
@@ -634,19 +634,19 @@
         <v>0.1693321739130434</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8548659449734767</v>
+        <v>0.8541755906808919</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2246956038477924</v>
+        <v>0.2245223180168107</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2246002619406154</v>
+        <v>0.2246175829298164</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02955544681834351</v>
+        <v>-0.02877112264622517</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.246393026773465</v>
+        <v>-0.2458113945698487</v>
       </c>
     </row>
     <row r="8">
@@ -663,19 +663,19 @@
         <v>0.2612662068965517</v>
       </c>
       <c r="E8" t="n">
-        <v>1.16697170829301</v>
+        <v>1.166062141612948</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3030372714986286</v>
+        <v>0.3028089611662661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.302907120907247</v>
+        <v>0.3029390103150501</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.03546813744500867</v>
+        <v>-0.03471577098636943</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1378413433948368</v>
+        <v>-0.1371912974758502</v>
       </c>
     </row>
     <row r="9">
@@ -692,19 +692,19 @@
         <v>0.2345623529411764</v>
       </c>
       <c r="E9" t="n">
-        <v>1.16697170829301</v>
+        <v>1.166062141612948</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3030372714986286</v>
+        <v>0.3028089611662661</v>
       </c>
       <c r="G9" t="n">
-        <v>0.302907120907247</v>
+        <v>0.3029390103150501</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04367861528328695</v>
+        <v>-0.04293265326640307</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2259620350289553</v>
+        <v>-0.2253784298926902</v>
       </c>
     </row>
     <row r="10">
@@ -721,19 +721,19 @@
         <v>0.2384022222222222</v>
       </c>
       <c r="E10" t="n">
-        <v>1.16697170829301</v>
+        <v>1.166062141612948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3030372714986286</v>
+        <v>0.3028089611662661</v>
       </c>
       <c r="G10" t="n">
-        <v>0.302907120907247</v>
+        <v>0.3029390103150501</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03780260063064966</v>
+        <v>-0.03705205512979107</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2132907577895047</v>
+        <v>-0.2126975988292483</v>
       </c>
     </row>
     <row r="11">
@@ -750,19 +750,19 @@
         <v>0.3108228571428571</v>
       </c>
       <c r="E11" t="n">
-        <v>1.465375992812547</v>
+        <v>1.464273261274467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3779397309558775</v>
+        <v>0.3776629343125039</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3777762997855197</v>
+        <v>0.3778262424968794</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02807031695065114</v>
+        <v>-0.02733836510625123</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1775861819112529</v>
+        <v>-0.1769834185378087</v>
       </c>
     </row>
     <row r="12">
@@ -779,19 +779,19 @@
         <v>0.3038651851851852</v>
       </c>
       <c r="E12" t="n">
-        <v>1.465375992812547</v>
+        <v>1.464273261274467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3779397309558775</v>
+        <v>0.3776629343125039</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3777762997855197</v>
+        <v>0.3778262424968794</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04782518309923857</v>
+        <v>-0.04710810847380369</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.195995656723744</v>
+        <v>-0.1954063860189506</v>
       </c>
     </row>
     <row r="13">
@@ -808,19 +808,19 @@
         <v>0.3093049999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>1.465375992812547</v>
+        <v>1.464273261274467</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3779397309558775</v>
+        <v>0.3776629343125039</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3777762997855197</v>
+        <v>0.3778262424968794</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04605047189351243</v>
+        <v>-0.04533206074840646</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1816023173385026</v>
+        <v>-0.1810024974702442</v>
       </c>
     </row>
     <row r="14">
@@ -837,19 +837,19 @@
         <v>0.4879657142857143</v>
       </c>
       <c r="E14" t="n">
-        <v>1.737008201587415</v>
+        <v>1.735743595975366</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4461221316804571</v>
+        <v>0.4458047030257766</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4459284057802795</v>
+        <v>0.4459982878864013</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.08143464486960356</v>
+        <v>-0.08076540840759072</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09379400759079215</v>
+        <v>0.09457282745960598</v>
       </c>
     </row>
     <row r="15">
@@ -866,19 +866,19 @@
         <v>0.4989830303030303</v>
       </c>
       <c r="E15" t="n">
-        <v>1.737008201587415</v>
+        <v>1.735743595975366</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4461221316804571</v>
+        <v>0.4458047030257766</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4459284057802795</v>
+        <v>0.4459982878864013</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.08463299220640842</v>
+        <v>-0.08396608595491792</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1184897472435546</v>
+        <v>0.1192861513490557</v>
       </c>
     </row>
     <row r="16">
@@ -895,19 +895,19 @@
         <v>0.49993</v>
       </c>
       <c r="E16" t="n">
-        <v>1.737008201587415</v>
+        <v>1.735743595975366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4461221316804571</v>
+        <v>0.4458047030257766</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4459284057802795</v>
+        <v>0.4459982878864013</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0544932720089871</v>
+        <v>-0.05380440695010383</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1206124164180308</v>
+        <v>0.1214103319387678</v>
       </c>
     </row>
     <row r="17">
@@ -924,19 +924,19 @@
         <v>0.09350456140350871</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2495842465762851</v>
+        <v>0.2494760397259555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1447218112607446</v>
+        <v>0.144667790072786</v>
       </c>
       <c r="G17" t="n">
-        <v>0.144693975506835</v>
+        <v>0.144695613758549</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04347444272326768</v>
+        <v>0.04392703561744103</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3539013878492578</v>
+        <v>-0.3536601246451321</v>
       </c>
     </row>
     <row r="18">
@@ -953,19 +953,19 @@
         <v>0.09136292682926822</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2495842465762851</v>
+        <v>0.2494760397259555</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1447218112607446</v>
+        <v>0.144667790072786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.144693975506835</v>
+        <v>0.144695613758549</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0690719990222238</v>
+        <v>0.06953569450944089</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3686996726107851</v>
+        <v>-0.3684639353148256</v>
       </c>
     </row>
     <row r="19">
@@ -982,19 +982,19 @@
         <v>0.08950352941176459</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2495842465762851</v>
+        <v>0.2494760397259555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1447218112607446</v>
+        <v>0.144667790072786</v>
       </c>
       <c r="G19" t="n">
-        <v>0.144693975506835</v>
+        <v>0.144695613758549</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09636873075932327</v>
+        <v>0.09684426583389635</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3815477526707669</v>
+        <v>-0.3813168130464072</v>
       </c>
     </row>
     <row r="20">
@@ -1011,19 +1011,19 @@
         <v>0.1873812987012986</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4309834330118175</v>
+        <v>0.4308001258994889</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2352835410968198</v>
+        <v>0.2351920268540608</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2352354741657335</v>
+        <v>0.2352400733411818</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.005797402720351164</v>
+        <v>-0.005374365687118255</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2035936817858809</v>
+        <v>-0.2032837966162404</v>
       </c>
     </row>
     <row r="21">
@@ -1040,19 +1040,19 @@
         <v>0.1915646153846153</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4309834330118175</v>
+        <v>0.4308001258994889</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2352835410968198</v>
+        <v>0.2351920268540608</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2352354741657335</v>
+        <v>0.2352400733411818</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01001608417981209</v>
+        <v>-0.009594842211783847</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1858137866694805</v>
+        <v>-0.1854969832651546</v>
       </c>
     </row>
     <row r="22">
@@ -1069,19 +1069,19 @@
         <v>0.1887734579439251</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4309834330118175</v>
+        <v>0.4308001258994889</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2352835410968198</v>
+        <v>0.2351920268540608</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2352354741657335</v>
+        <v>0.2352400733411818</v>
       </c>
       <c r="H22" t="n">
-        <v>5.760038437942799e-06</v>
+        <v>0.0004312663397692888</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1976767390361386</v>
+        <v>-0.1973645515582844</v>
       </c>
     </row>
     <row r="23">
@@ -1098,19 +1098,19 @@
         <v>0.2757686075949368</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6059692304560718</v>
+        <v>0.6057163061493293</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3226434506128893</v>
+        <v>0.3225171806819911</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3225758677802101</v>
+        <v>0.3225847353064045</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0009002134350976253</v>
+        <v>-0.0004830270091782652</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1452837270643792</v>
+        <v>-0.1449490938380411</v>
       </c>
     </row>
     <row r="24">
@@ -1127,19 +1127,19 @@
         <v>0.2735284848484849</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6059692304560718</v>
+        <v>0.6057163061493293</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3226434506128893</v>
+        <v>0.3225171806819911</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3225758677802101</v>
+        <v>0.3225847353064045</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0003922081909562793</v>
+        <v>0.0008099342834496943</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1522267557922104</v>
+        <v>-0.1518948408575174</v>
       </c>
     </row>
     <row r="25">
@@ -1156,19 +1156,19 @@
         <v>0.2653466666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6059692304560718</v>
+        <v>0.6057163061493293</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3226434506128893</v>
+        <v>0.3225171806819911</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3225758677802101</v>
+        <v>0.3225847353064045</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.01096952819331055</v>
+        <v>-0.01055654633383383</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1775854548957445</v>
+        <v>-0.1772634682420092</v>
       </c>
     </row>
     <row r="26">
@@ -1185,19 +1185,19 @@
         <v>0.3501085714285714</v>
       </c>
       <c r="E26" t="n">
-        <v>0.778856392074981</v>
+        <v>0.7785374128123075</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4089556371795136</v>
+        <v>0.4087963899724164</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4088687725029241</v>
+        <v>0.4088832190737306</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.02717328200425925</v>
+        <v>-0.02677469929762416</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1438959642586144</v>
+        <v>-0.1435624677307082</v>
       </c>
     </row>
     <row r="27">
@@ -1214,19 +1214,19 @@
         <v>0.3708778021978022</v>
       </c>
       <c r="E27" t="n">
-        <v>0.778856392074981</v>
+        <v>0.7785374128123075</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4089556371795136</v>
+        <v>0.4087963899724164</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4088687725029241</v>
+        <v>0.4088832190737306</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.03942735045805031</v>
+        <v>-0.03903378843976727</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.09310994034542885</v>
+        <v>-0.09275666005067405</v>
       </c>
     </row>
     <row r="28">
@@ -1243,19 +1243,19 @@
         <v>0.3489180952380952</v>
       </c>
       <c r="E28" t="n">
-        <v>0.778856392074981</v>
+        <v>0.7785374128123075</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4089556371795136</v>
+        <v>0.4087963899724164</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4088687725029241</v>
+        <v>0.4088832190737306</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.01137102059519132</v>
+        <v>-0.0109659634486515</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1468069797386471</v>
+        <v>-0.1464746172009041</v>
       </c>
     </row>
     <row r="29">
@@ -1272,19 +1272,19 @@
         <v>0.5120133333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9412102412192511</v>
+        <v>0.9408316996611241</v>
       </c>
       <c r="F29" t="n">
-        <v>0.490009172826299</v>
+        <v>0.4898201897388196</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4899042010702242</v>
+        <v>0.4899251192767262</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03315969148276689</v>
+        <v>-0.03277068541826256</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0449056093789381</v>
+        <v>0.04530875627308757</v>
       </c>
     </row>
     <row r="30">
@@ -1301,19 +1301,19 @@
         <v>0.4394326097560975</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9412102412192511</v>
+        <v>0.9408316996611241</v>
       </c>
       <c r="F30" t="n">
-        <v>0.490009172826299</v>
+        <v>0.4898201897388196</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4899042010702242</v>
+        <v>0.4899251192767262</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.04112815556395306</v>
+        <v>-0.04074235559338695</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1032155434529591</v>
+        <v>-0.1028695448621454</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>0.4623878651685393</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9412102412192511</v>
+        <v>0.9408316996611241</v>
       </c>
       <c r="F31" t="n">
-        <v>0.490009172826299</v>
+        <v>0.4898201897388196</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4899042010702242</v>
+        <v>0.4899251192767262</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0296181518911286</v>
+        <v>-0.02922772089598505</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0563689603981169</v>
+        <v>-0.05600488739532707</v>
       </c>
     </row>
     <row r="32">
@@ -1359,19 +1359,19 @@
         <v>0.09498252100840338</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1540380029531614</v>
+        <v>0.1539932253698439</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1461577252610136</v>
+        <v>0.1461240489361522</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1461405456352891</v>
+        <v>0.1461412235679006</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1053472744478297</v>
+        <v>0.1056686832601814</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3501368412871764</v>
+        <v>-0.3499870712595348</v>
       </c>
     </row>
     <row r="33">
@@ -1388,19 +1388,19 @@
         <v>0.09393862068965519</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1540380029531614</v>
+        <v>0.1539932253698439</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1461577252610136</v>
+        <v>0.1461240489361522</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1461405456352891</v>
+        <v>0.1461412235679006</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05725301376870662</v>
+        <v>0.05756043790894382</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.357279127587021</v>
+        <v>-0.3571310035988605</v>
       </c>
     </row>
     <row r="34">
@@ -1417,19 +1417,19 @@
         <v>0.09578843373493978</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1540380029531614</v>
+        <v>0.1539932253698439</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1461577252610136</v>
+        <v>0.1461240489361522</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1461405456352891</v>
+        <v>0.1461412235679006</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1166075689276516</v>
+        <v>0.1169322519669898</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3446228479276248</v>
+        <v>-0.3444718071233177</v>
       </c>
     </row>
     <row r="35">
@@ -1446,19 +1446,19 @@
         <v>0.1883270588235293</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2776367962123913</v>
+        <v>0.2775571226031537</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2391139056954153</v>
+        <v>0.2390539847673799</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2390829412830311</v>
+        <v>0.2390849402938869</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02546163274100731</v>
+        <v>0.02575599459578139</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2123960408081768</v>
+        <v>-0.2121986211324282</v>
       </c>
     </row>
     <row r="36">
@@ -1475,19 +1475,19 @@
         <v>0.1889239024390243</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2776367962123913</v>
+        <v>0.2775571226031537</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2391139056954153</v>
+        <v>0.2390539847673799</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2390829412830311</v>
+        <v>0.2390849402938869</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04540862882234302</v>
+        <v>0.0457087165225083</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.209899976793166</v>
+        <v>-0.2097019314576011</v>
       </c>
     </row>
     <row r="37">
@@ -1504,19 +1504,19 @@
         <v>0.1896211764705882</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2776367962123913</v>
+        <v>0.2775571226031537</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2391139056954153</v>
+        <v>0.2390539847673799</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2390829412830311</v>
+        <v>0.2390849402938869</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02358927342695013</v>
+        <v>0.02388309781533552</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2069839020063989</v>
+        <v>-0.2067851257317214</v>
       </c>
     </row>
     <row r="38">
@@ -1533,19 +1533,19 @@
         <v>0.2788315151515152</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3983494071035461</v>
+        <v>0.3982365402347561</v>
       </c>
       <c r="F38" t="n">
-        <v>0.329899446094435</v>
+        <v>0.3298145611797554</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3298550187869496</v>
+        <v>0.3298589758993695</v>
       </c>
       <c r="H38" t="n">
-        <v>0.009800727586371334</v>
+        <v>0.01008692193246857</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1547984743457297</v>
+        <v>-0.1545809434424986</v>
       </c>
     </row>
     <row r="39">
@@ -1562,19 +1562,19 @@
         <v>0.2754072727272727</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3983494071035461</v>
+        <v>0.3982365402347561</v>
       </c>
       <c r="F39" t="n">
-        <v>0.329899446094435</v>
+        <v>0.3298145611797554</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3298550187869496</v>
+        <v>0.3298589758993695</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02389722486268411</v>
+        <v>0.0241874143909099</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1651781293126624</v>
+        <v>-0.1649632698382582</v>
       </c>
     </row>
     <row r="40">
@@ -1591,19 +1591,19 @@
         <v>0.2729172881355932</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3983494071035461</v>
+        <v>0.3982365402347561</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329899446094435</v>
+        <v>0.3298145611797554</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3298550187869496</v>
+        <v>0.3298589758993695</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02731612482203242</v>
+        <v>0.02760728332345411</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1727258370192304</v>
+        <v>-0.1725129201107408</v>
       </c>
     </row>
     <row r="41">
@@ -1620,19 +1620,19 @@
         <v>0.3659657142857143</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5190717556324045</v>
+        <v>0.5189265703546461</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4206923099760188</v>
+        <v>0.4205831190323223</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4206344186874084</v>
+        <v>0.4206409941286381</v>
       </c>
       <c r="H41" t="n">
-        <v>0.009368012311090584</v>
+        <v>0.009650413297279626</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1300869885009882</v>
+        <v>-0.1298611434340772</v>
       </c>
     </row>
     <row r="42">
@@ -1649,19 +1649,19 @@
         <v>0.3751020183486238</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5190717556324045</v>
+        <v>0.5189265703546461</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4206923099760188</v>
+        <v>0.4205831190323223</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4206344186874084</v>
+        <v>0.4206409941286381</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01354328993355639</v>
+        <v>0.01382685907893397</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1083696814662331</v>
+        <v>-0.1081381981957368</v>
       </c>
     </row>
     <row r="43">
@@ -1678,19 +1678,19 @@
         <v>0.3750261538461538</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5190717556324045</v>
+        <v>0.5189265703546461</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4206923099760188</v>
+        <v>0.4205831190323223</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4206344186874084</v>
+        <v>0.4206409941286381</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0118945905646854</v>
+        <v>0.01217769843694751</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1085500139816393</v>
+        <v>-0.108318577528708</v>
       </c>
     </row>
     <row r="44">
@@ -1707,19 +1707,19 @@
         <v>0.4528024464285714</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6337817273000577</v>
+        <v>0.6336066462804926</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5069633854678274</v>
+        <v>0.5068317105346329</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5068927007493989</v>
+        <v>0.50690237572654</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.01757737307062075</v>
+        <v>-0.01730590566071219</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1068340250830463</v>
+        <v>-0.1066019804661957</v>
       </c>
     </row>
     <row r="45">
@@ -1736,19 +1736,19 @@
         <v>0.465993</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6337817273000577</v>
+        <v>0.6336066462804926</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5069633854678274</v>
+        <v>0.5068317105346329</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5068927007493989</v>
+        <v>0.50690237572654</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.04474410868124069</v>
+        <v>-0.04448014810510176</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.08081527511108083</v>
+        <v>-0.08057647082017444</v>
       </c>
     </row>
     <row r="46">
@@ -1765,19 +1765,19 @@
         <v>0.4611702962962963</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6337817273000577</v>
+        <v>0.6336066462804926</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5069633854678274</v>
+        <v>0.5068317105346329</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5068927007493989</v>
+        <v>0.50690237572654</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.01344085674670733</v>
+        <v>-0.01316824631612548</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0903281982174572</v>
+        <v>-0.09009186538500237</v>
       </c>
     </row>
   </sheetData>

--- a/1. 뉴턴 2법칙/data/result.xlsx
+++ b/1. 뉴턴 2법칙/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,14 +466,34 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Expected a_tmp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Expected T_tmp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Error a</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Error N</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Error a_tmp</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Error N_tmp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,22 +506,34 @@
         <v>0.491830985915493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07930500000000001</v>
+        <v>0.157515</v>
       </c>
       <c r="E2" t="n">
-        <v>0.519628121963905</v>
+        <v>0.5213717606885834</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1405475578941598</v>
+        <v>0.1409852286504413</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1406055112334665</v>
+        <v>0.1410433764551404</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0534942873056106</v>
+        <v>0.5215901972201352</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.435742597109221</v>
+        <v>0.1409852286504413</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-5.665971385576288</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.72447036316307</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.04189650226996457</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -515,22 +547,34 @@
         <v>0.5127272727272727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08551544303797465</v>
+        <v>0.1637254430379746</v>
       </c>
       <c r="E3" t="n">
-        <v>0.519628121963905</v>
+        <v>0.5213717606885834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1405475578941598</v>
+        <v>0.1409852286504413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1406055112334665</v>
+        <v>0.1410433764551404</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.01328036136795462</v>
+        <v>0.5215901972201352</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3915551125948942</v>
+        <v>0.1409852286504413</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.658027651880066</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.12950137061194</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.04189650226996457</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -544,22 +588,34 @@
         <v>0.5179310344827586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08271846153846157</v>
+        <v>0.1609284615384616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.519628121963905</v>
+        <v>0.5213717606885834</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1405475578941598</v>
+        <v>0.1409852286504413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1406055112334665</v>
+        <v>0.1410433764551404</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.003265965426837064</v>
+        <v>0.5215901972201352</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4114557180655304</v>
+        <v>0.1409852286504413</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.6599372012938692</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.14561871404804</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04189650226996457</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -573,22 +629,34 @@
         <v>0.8352380952380951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1642355555555555</v>
+        <v>0.2424455555555555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8541755906808919</v>
+        <v>0.8557958804219722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2245223180168107</v>
+        <v>0.2249290269447193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2246175829298164</v>
+        <v>0.2250244725661916</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02217049474300836</v>
+        <v>0.8561415100488865</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2685112241569739</v>
+        <v>0.2249290269447193</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-2.402183237168719</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.787580308672768</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04038692342663424</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -602,22 +670,34 @@
         <v>0.8053846153846155</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1779950684931506</v>
+        <v>0.2562050684931506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8541755906808919</v>
+        <v>0.8557958804219722</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2245223180168107</v>
+        <v>0.2249290269447193</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2246175829298164</v>
+        <v>0.2250244725661916</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05712054503615994</v>
+        <v>0.8561415100488865</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2072277265557914</v>
+        <v>0.2249290269447193</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-5.890571126902381</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.90484899759873</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04038692342663424</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -631,22 +711,34 @@
         <v>0.8296000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1693321739130434</v>
+        <v>0.2475421739130434</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8541755906808919</v>
+        <v>0.8557958804219722</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2245223180168107</v>
+        <v>0.2249290269447193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2246175829298164</v>
+        <v>0.2250244725661916</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02877112264622517</v>
+        <v>0.8561415100488865</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2458113945698487</v>
+        <v>0.2249290269447193</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-3.06099632181631</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.05345876229739</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04038692342663424</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -660,22 +752,34 @@
         <v>1.125581395348837</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2612662068965517</v>
+        <v>0.3394762068965517</v>
       </c>
       <c r="E8" t="n">
-        <v>1.166062141612948</v>
+        <v>1.167571511999921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3028089611662661</v>
+        <v>0.3031878282271002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3029390103150501</v>
+        <v>0.3033180457136828</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.03471577098636943</v>
+        <v>1.168026626939745</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1371912974758502</v>
+        <v>0.3031878282271002</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-3.596363581975292</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.96894310752807</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.03897962010438913</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -689,22 +793,34 @@
         <v>1.116</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2345623529411764</v>
+        <v>0.3127723529411764</v>
       </c>
       <c r="E9" t="n">
-        <v>1.166062141612948</v>
+        <v>1.167571511999921</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3028089611662661</v>
+        <v>0.3031878282271002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029390103150501</v>
+        <v>0.3033180457136828</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04293265326640307</v>
+        <v>1.168026626939745</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2253784298926902</v>
+        <v>0.3031878282271002</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-4.416989577930404</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.16124983318825</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03897962010438913</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -718,22 +834,34 @@
         <v>1.122857142857143</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2384022222222222</v>
+        <v>0.3166122222222222</v>
       </c>
       <c r="E10" t="n">
-        <v>1.166062141612948</v>
+        <v>1.167571511999921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3028089611662661</v>
+        <v>0.3031878282271002</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3029390103150501</v>
+        <v>0.3033180457136828</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03705205512979107</v>
+        <v>1.168026626939745</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2126975988292483</v>
+        <v>0.3031878282271002</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-3.8296899747226</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.42774832803202</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03897962010438913</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -747,22 +875,34 @@
         <v>1.424242424242424</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3108228571428571</v>
+        <v>0.3890328571428571</v>
       </c>
       <c r="E11" t="n">
-        <v>1.464273261274467</v>
+        <v>1.465680252728171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3776629343125039</v>
+        <v>0.3780161032372983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3778262424968794</v>
+        <v>0.3781795683413047</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02733836510625123</v>
+        <v>1.466231847477645</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1769834185378087</v>
+        <v>0.3780161032372983</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2.827207940382372</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.914361005050359</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03763404388144653</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -776,22 +916,34 @@
         <v>1.395294117647059</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3038651851851852</v>
+        <v>0.3820751851851852</v>
       </c>
       <c r="E12" t="n">
-        <v>1.464273261274467</v>
+        <v>1.465680252728171</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3776629343125039</v>
+        <v>0.3780161032372983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3778262424968794</v>
+        <v>0.3781795683413047</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04710810847380369</v>
+        <v>1.466231847477645</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1954063860189506</v>
+        <v>0.3780161032372983</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-4.802284464848184</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.073785458641895</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.03763404388144653</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -805,22 +957,34 @@
         <v>1.397894736842105</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3093049999999999</v>
+        <v>0.3875149999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>1.464273261274467</v>
+        <v>1.465680252728171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3776629343125039</v>
+        <v>0.3780161032372983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3778262424968794</v>
+        <v>0.3781795683413047</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04533206074840646</v>
+        <v>1.466231847477645</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1810024974702442</v>
+        <v>0.3780161032372983</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-4.624850185427022</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.512828602102885</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.03763404388144653</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -834,22 +998,34 @@
         <v>1.595555555555555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4879657142857143</v>
+        <v>0.5661757142857142</v>
       </c>
       <c r="E14" t="n">
-        <v>1.735743595975366</v>
+        <v>1.737060514381873</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4458047030257766</v>
+        <v>0.4461352627149939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4459982878864013</v>
+        <v>0.4463289944495387</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.08076540840759072</v>
+        <v>1.737692963241055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09457282745960598</v>
+        <v>0.4461352627149939</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-8.146230810886367</v>
+      </c>
+      <c r="K14" t="n">
+        <v>26.90673918941176</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.03640914371985986</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -863,22 +1039,34 @@
         <v>1.59</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4989830303030303</v>
+        <v>0.5771930303030303</v>
       </c>
       <c r="E15" t="n">
-        <v>1.735743595975366</v>
+        <v>1.737060514381873</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4458047030257766</v>
+        <v>0.4461352627149939</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4459982878864013</v>
+        <v>0.4463289944495387</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.08396608595491792</v>
+        <v>1.737692963241055</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1192861513490557</v>
+        <v>0.4461352627149939</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-8.466055912519757</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29.37624046807537</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.03640914371985986</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -892,22 +1080,34 @@
         <v>1.642352941176471</v>
       </c>
       <c r="D16" t="n">
-        <v>0.49993</v>
+        <v>0.57814</v>
       </c>
       <c r="E16" t="n">
-        <v>1.735743595975366</v>
+        <v>1.737060514381873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4458047030257766</v>
+        <v>0.4461352627149939</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4459982878864013</v>
+        <v>0.4463289944495387</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.05380440695010383</v>
+        <v>1.737692963241055</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1214103319387678</v>
+        <v>0.4461352627149939</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-5.45217466065673</v>
+      </c>
+      <c r="K16" t="n">
+        <v>29.58850113790157</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.03640914371985986</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -921,22 +1121,34 @@
         <v>0.2604347826086957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09350456140350871</v>
+        <v>0.1717145614035087</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2494760397259555</v>
+        <v>0.2504047474619801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.144667790072786</v>
+        <v>0.145131438122919</v>
       </c>
       <c r="G17" t="n">
-        <v>0.144695613758549</v>
+        <v>0.1451593653860525</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04392703561744103</v>
+        <v>0.2504590352428901</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3536601246451321</v>
+        <v>0.145131438122919</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.005529147660619</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18.31658503795381</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02168001264364517</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -950,22 +1162,34 @@
         <v>0.2668235294117647</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09136292682926822</v>
+        <v>0.1695729268292682</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2494760397259555</v>
+        <v>0.2504047474619801</v>
       </c>
       <c r="F18" t="n">
-        <v>0.144667790072786</v>
+        <v>0.145131438122919</v>
       </c>
       <c r="G18" t="n">
-        <v>0.144695613758549</v>
+        <v>0.1451593653860525</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06953569450944089</v>
+        <v>0.2504590352428901</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3684639353148256</v>
+        <v>0.145131438122919</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.556897229864822</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16.84093331015474</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.02168001264364517</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -979,22 +1203,34 @@
         <v>0.2736363636363636</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08950352941176459</v>
+        <v>0.1677135294117646</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2494760397259555</v>
+        <v>0.2504047474619801</v>
       </c>
       <c r="F19" t="n">
-        <v>0.144667790072786</v>
+        <v>0.145131438122919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.144695613758549</v>
+        <v>0.1451593653860525</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09684426583389635</v>
+        <v>0.2504590352428901</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3813168130464072</v>
+        <v>0.145131438122919</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.27762608730526</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.55975161613141</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.02168001264364517</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1008,22 +1244,34 @@
         <v>0.4284848484848485</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1873812987012986</v>
+        <v>0.2655912987012986</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4308001258994889</v>
+        <v>0.431693929647007</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2351920268540608</v>
+        <v>0.2356382494369718</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2352400733411818</v>
+        <v>0.2356863956086742</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.005374365687118255</v>
+        <v>0.4317857450703688</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2032837966162404</v>
+        <v>0.2356382494369718</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.7433695360929928</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.71145467083373</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.02126863897224741</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1037,22 +1285,34 @@
         <v>0.4266666666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1915646153846153</v>
+        <v>0.2697746153846153</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4308001258994889</v>
+        <v>0.431693929647007</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2351920268540608</v>
+        <v>0.2356382494369718</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2352400733411818</v>
+        <v>0.2356863956086742</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009594842211783847</v>
+        <v>0.4317857450703688</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1854969832651546</v>
+        <v>0.2356382494369718</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.164543357014795</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.48676775914271</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.02126863897224741</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1066,22 +1326,34 @@
         <v>0.4309859154929577</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1887734579439251</v>
+        <v>0.2669834579439251</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4308001258994889</v>
+        <v>0.431693929647007</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2351920268540608</v>
+        <v>0.2356382494369718</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2352400733411818</v>
+        <v>0.2356863956086742</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0004312663397692888</v>
+        <v>0.4317857450703688</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1973645515582844</v>
+        <v>0.2356382494369718</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.1640083645902193</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13.30225826318468</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.02126863897224741</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1095,22 +1367,34 @@
         <v>0.6054237288135594</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2757686075949368</v>
+        <v>0.3539786075949368</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6057163061493293</v>
+        <v>0.606577072846594</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3225171806819911</v>
+        <v>0.3229469098479336</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3225847353064045</v>
+        <v>0.3230145604723561</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0004830270091782652</v>
+        <v>0.6067036764293067</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1449490938380411</v>
+        <v>0.3229469098479336</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.1901397340361167</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9.608916140927027</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.02087180481756807</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,22 +1408,34 @@
         <v>0.6062068965517241</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2735284848484849</v>
+        <v>0.3517384848484849</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6057163061493293</v>
+        <v>0.606577072846594</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3225171806819911</v>
+        <v>0.3229469098479336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3225847353064045</v>
+        <v>0.3230145604723561</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008099342834496943</v>
+        <v>0.6067036764293067</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1518948408575174</v>
+        <v>0.3229469098479336</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.06102708319203574</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.915265674506195</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.02087180481756807</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1153,22 +1449,34 @@
         <v>0.5993220338983052</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2653466666666667</v>
+        <v>0.3435566666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6057163061493293</v>
+        <v>0.606577072846594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3225171806819911</v>
+        <v>0.3229469098479336</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3225847353064045</v>
+        <v>0.3230145604723561</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.01055654633383383</v>
+        <v>0.6067036764293067</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1772634682420092</v>
+        <v>0.3229469098479336</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1.196062177926013</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.381778611362964</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.02087180481756807</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1182,22 +1490,34 @@
         <v>0.7576923076923077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3501085714285714</v>
+        <v>0.4283185714285714</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7785374128123075</v>
+        <v>0.7793661490891715</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4087963899724164</v>
+        <v>0.409210128271278</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4088832190737306</v>
+        <v>0.409297049800297</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.02677469929762416</v>
+        <v>0.779525761137023</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1435624677307082</v>
+        <v>0.409210128271278</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-2.780957502733926</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.669591937525519</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.02047972548436533</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1211,22 +1531,34 @@
         <v>0.7481481481481481</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3708778021978022</v>
+        <v>0.4490878021978022</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7785374128123075</v>
+        <v>0.7793661490891715</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4087963899724164</v>
+        <v>0.409210128271278</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4088832190737306</v>
+        <v>0.409297049800297</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.03903378843976727</v>
+        <v>0.779525761137023</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.09275666005067405</v>
+        <v>0.409210128271278</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-4.005562850979241</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9.745035904900213</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.02047972548436533</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1240,22 +1572,34 @@
         <v>0.77</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3489180952380952</v>
+        <v>0.4271280952380952</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7785374128123075</v>
+        <v>0.7793661490891715</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4087963899724164</v>
+        <v>0.409210128271278</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4088832190737306</v>
+        <v>0.409297049800297</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0109659634486515</v>
+        <v>0.779525761137023</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1464746172009041</v>
+        <v>0.409210128271278</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1.201764934250411</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.378671427931733</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02047972548436533</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1269,22 +1613,34 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5120133333333333</v>
+        <v>0.5902233333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9408316996611241</v>
+        <v>0.9416309094354608</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4898201897388196</v>
+        <v>0.4902191872265594</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4899251192767262</v>
+        <v>0.4903242058991247</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03277068541826256</v>
+        <v>0.9418202858173295</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04530875627308757</v>
+        <v>0.4902191872265594</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-3.359162185364586</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20.39988411562439</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0201115298968047</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1298,22 +1654,34 @@
         <v>0.9025</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4394326097560975</v>
+        <v>0.5176426097560975</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9408316996611241</v>
+        <v>0.9416309094354608</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4898201897388196</v>
+        <v>0.4902191872265594</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4899251192767262</v>
+        <v>0.4903242058991247</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.04074235559338695</v>
+        <v>0.9418202858173295</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1028695448621454</v>
+        <v>0.4902191872265594</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-4.155652606913797</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.594114478604468</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0201115298968047</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1327,22 +1695,34 @@
         <v>0.9133333333333336</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4623878651685393</v>
+        <v>0.5405978651685394</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9408316996611241</v>
+        <v>0.9416309094354608</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4898201897388196</v>
+        <v>0.4902191872265594</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4899251192767262</v>
+        <v>0.4903242058991247</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.02922772089598505</v>
+        <v>0.9418202858173295</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.05600488739532707</v>
+        <v>0.4902191872265594</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-3.005166442453826</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10.27676583346317</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0201115298968047</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1356,22 +1736,34 @@
         <v>0.1702654867256637</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09498252100840338</v>
+        <v>0.1731925210084034</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1539932253698439</v>
+        <v>0.154622160027265</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1461240489361522</v>
+        <v>0.1465970581133055</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1461412235679006</v>
+        <v>0.1466143028891859</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1056686832601814</v>
+        <v>0.1546446355259556</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3499870712595348</v>
+        <v>0.1465970581133055</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10.11713113802078</v>
+      </c>
+      <c r="K32" t="n">
+        <v>18.14188036061555</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01453575521560117</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1385,22 +1777,34 @@
         <v>0.1628571428571428</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09393862068965519</v>
+        <v>0.1721486206896552</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1539932253698439</v>
+        <v>0.154622160027265</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1461240489361522</v>
+        <v>0.1465970581133055</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1461412235679006</v>
+        <v>0.1466143028891859</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05756043790894382</v>
+        <v>0.1546446355259556</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3571310035988605</v>
+        <v>0.1465970581133055</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.325874912383687</v>
+      </c>
+      <c r="K33" t="n">
+        <v>17.42979218355176</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01453575521560117</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1414,22 +1818,34 @@
         <v>0.172</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09578843373493978</v>
+        <v>0.1739984337349398</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1539932253698439</v>
+        <v>0.154622160027265</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1461240489361522</v>
+        <v>0.1465970581133055</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1461412235679006</v>
+        <v>0.1466143028891859</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1169322519669898</v>
+        <v>0.1546446355259556</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3444718071233177</v>
+        <v>0.1465970581133055</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11.23890648641225</v>
+      </c>
+      <c r="K34" t="n">
+        <v>18.69162722246152</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.01453575521560117</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1443,22 +1859,34 @@
         <v>0.2847058823529411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1883270588235293</v>
+        <v>0.2665370588235293</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2775571226031537</v>
+        <v>0.2781700588168642</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2390539847673799</v>
+        <v>0.2395149618349872</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2390849402938869</v>
+        <v>0.2395459857213441</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02575599459578139</v>
+        <v>0.2782099752965698</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2121986211324282</v>
+        <v>0.2395149618349872</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.349578370826702</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11.28200793032665</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.01434966792449116</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1472,22 +1900,34 @@
         <v>0.2902439024390243</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1889239024390243</v>
+        <v>0.2671339024390244</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2775571226031537</v>
+        <v>0.2781700588168642</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2390539847673799</v>
+        <v>0.2395149618349872</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2390849402938869</v>
+        <v>0.2395459857213441</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0457087165225083</v>
+        <v>0.2782099752965698</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2097019314576011</v>
+        <v>0.2395149618349872</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.340454063788747</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.53119637806387</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.01434966792449116</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1501,22 +1941,34 @@
         <v>0.2841860465116279</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1896211764705882</v>
+        <v>0.2678311764705882</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2775571226031537</v>
+        <v>0.2781700588168642</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2390539847673799</v>
+        <v>0.2395149618349872</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2390849402938869</v>
+        <v>0.2395459857213441</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02388309781533552</v>
+        <v>0.2782099752965698</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2067851257317214</v>
+        <v>0.2395149618349872</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.162701377837495</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.82231557421839</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.01434966792449116</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1530,22 +1982,34 @@
         <v>0.4022535211267605</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2788315151515152</v>
+        <v>0.3570415151515152</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3982365402347561</v>
+        <v>0.3988340504083882</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3298145611797554</v>
+        <v>0.3302639366311406</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3298589758993695</v>
+        <v>0.3303084179901615</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01008692193246857</v>
+        <v>0.3988905569176437</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1545809434424986</v>
+        <v>0.3302639366311406</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.857366795756506</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.107932944032402</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.01416792502989106</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1559,22 +2023,34 @@
         <v>0.4078688524590164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2754072727272727</v>
+        <v>0.3536172727272727</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3982365402347561</v>
+        <v>0.3988340504083882</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3298145611797554</v>
+        <v>0.3302639366311406</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3298589758993695</v>
+        <v>0.3303084179901615</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0241874143909099</v>
+        <v>0.3988905569176437</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1649632698382582</v>
+        <v>0.3302639366311406</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.265303587137808</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.071112981437803</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.01416792502989106</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1588,22 +2064,34 @@
         <v>0.4092307692307692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2729172881355932</v>
+        <v>0.3511272881355932</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3982365402347561</v>
+        <v>0.3988340504083882</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3298145611797554</v>
+        <v>0.3302639366311406</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3298589758993695</v>
+        <v>0.3303084179901615</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02760728332345411</v>
+        <v>0.3988905569176437</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1725129201107408</v>
+        <v>0.3302639366311406</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.60677813535108</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.317175201528018</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01416792502989106</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1617,22 +2105,34 @@
         <v>0.5239344262295083</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3659657142857143</v>
+        <v>0.4441757142857143</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5189265703546461</v>
+        <v>0.5195088497441043</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4205831190323223</v>
+        <v>0.421021039715546</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4206409941286381</v>
+        <v>0.4210789797526023</v>
       </c>
       <c r="H41" t="n">
-        <v>0.009650413297279626</v>
+        <v>0.5195815091169019</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1298611434340772</v>
+        <v>0.421021039715546</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.851877015682004</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5.499647852708799</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.01398616651736473</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1646,22 +2146,34 @@
         <v>0.5261016949152543</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3751020183486238</v>
+        <v>0.4533120183486238</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5189265703546461</v>
+        <v>0.5195088497441043</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4205831190323223</v>
+        <v>0.421021039715546</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4206409941286381</v>
+        <v>0.4210789797526023</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01382685907893397</v>
+        <v>0.5195815091169019</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1081381981957368</v>
+        <v>0.421021039715546</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.269053486653298</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7.669682886844457</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.01398616651736473</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1675,22 +2187,34 @@
         <v>0.5252459016393444</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3750261538461538</v>
+        <v>0.4532361538461538</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5189265703546461</v>
+        <v>0.5195088497441043</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4205831190323223</v>
+        <v>0.421021039715546</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4206409941286381</v>
+        <v>0.4210789797526023</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01217769843694751</v>
+        <v>0.5195815091169019</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.108318577528708</v>
+        <v>0.421021039715546</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.104322264782594</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7.651663715517236</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01398616651736473</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1704,22 +2228,34 @@
         <v>0.6226415094339621</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4528024464285714</v>
+        <v>0.5310124464285714</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6336066462804926</v>
+        <v>0.6341746355059052</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5068317105346329</v>
+        <v>0.5072588838712813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.50690237572654</v>
+        <v>0.5073296124101684</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.01730590566071219</v>
+        <v>0.6342622369610721</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1066019804661957</v>
+        <v>0.5072588838712813</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1.818604123569639</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.682729728853336</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.01381345930004885</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1733,22 +2269,34 @@
         <v>0.6054237288135594</v>
       </c>
       <c r="D45" t="n">
-        <v>0.465993</v>
+        <v>0.544203</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6336066462804926</v>
+        <v>0.6341746355059052</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5068317105346329</v>
+        <v>0.5072588838712813</v>
       </c>
       <c r="G45" t="n">
-        <v>0.50690237572654</v>
+        <v>0.5073296124101684</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.04448014810510176</v>
+        <v>0.6342622369610721</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.08057647082017444</v>
+        <v>0.5072588838712813</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-4.533594546778132</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7.283089030746957</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01381345930004885</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1762,22 +2310,34 @@
         <v>0.6252631578947369</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4611702962962963</v>
+        <v>0.5393802962962962</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6336066462804926</v>
+        <v>0.6341746355059052</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5068317105346329</v>
+        <v>0.5072588838712813</v>
       </c>
       <c r="G46" t="n">
-        <v>0.50690237572654</v>
+        <v>0.5073296124101684</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.01316824631612548</v>
+        <v>0.6342622369610721</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.09009186538500237</v>
+        <v>0.5072588838712813</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.405208772510961</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.332350885581711</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01381345930004885</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
